--- a/database-init-script/UME_EMS_DATA.xlsx
+++ b/database-init-script/UME_EMS_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="779" windowHeight="14720" windowWidth="24980" xWindow="0" yWindow="460"/>
+    <workbookView tabRatio="779" windowHeight="14720" windowWidth="24980" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#DBCONFIG" r:id="rId1" sheetId="1"/>
@@ -17,12 +17,12 @@
     <sheet name="EM_CONS_CODE_CFG" r:id="rId6" sheetId="3"/>
     <sheet name="EM_CONS_SQL_CFG" r:id="rId7" sheetId="4"/>
     <sheet name="EM_DS_CFG" r:id="rId8" sheetId="5"/>
-    <sheet name="EM_TBL_CFG" r:id="rId9" sheetId="6"/>
-    <sheet name="EM_TBL_COL_CFG" r:id="rId10" sheetId="7"/>
-    <sheet name="UME_RESOURCE" r:id="rId11" sheetId="8"/>
-    <sheet name="UME_ROLE" r:id="rId12" sheetId="9"/>
-    <sheet name="UME_ROLE_ACL" r:id="rId13" sheetId="10"/>
-    <sheet name="UME_SEQ" r:id="rId14" sheetId="11"/>
+    <sheet name="EM_SEQ" r:id="rId9" sheetId="6"/>
+    <sheet name="EM_TBL_CFG" r:id="rId10" sheetId="7"/>
+    <sheet name="EM_TBL_COL_CFG" r:id="rId11" sheetId="8"/>
+    <sheet name="UME_RESOURCE" r:id="rId12" sheetId="9"/>
+    <sheet name="UME_ROLE" r:id="rId13" sheetId="10"/>
+    <sheet name="UME_ROLE_ACL" r:id="rId14" sheetId="11"/>
     <sheet name="UME_USER" r:id="rId15" sheetId="12"/>
     <sheet name="UME_USER_ROLE" r:id="rId16" sheetId="13"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="356">
   <si>
     <t>SET JDBC</t>
   </si>
@@ -104,771 +104,855 @@
     <t>UME_ROLE_ACL</t>
   </si>
   <si>
+    <t>UME_USER</t>
+  </si>
+  <si>
+    <t>UME_USER_ROLE</t>
+  </si>
+  <si>
+    <t>umedbm01</t>
+  </si>
+  <si>
+    <t>EM_SEQ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>类别编号</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>编码名称</t>
+  </si>
+  <si>
+    <t>编码描述</t>
+  </si>
+  <si>
+    <t>表示值</t>
+  </si>
+  <si>
+    <t>存贮值</t>
+  </si>
+  <si>
+    <t>存贮类型</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>CONS_ID</t>
+  </si>
+  <si>
+    <t>CONS_SEQ</t>
+  </si>
+  <si>
+    <t>CONS_NAME</t>
+  </si>
+  <si>
+    <t>CONS_DESC</t>
+  </si>
+  <si>
+    <t>DISP_VALUE</t>
+  </si>
+  <si>
+    <t>STORE_VALUE</t>
+  </si>
+  <si>
+    <t>STORE_TYPE</t>
+  </si>
+  <si>
+    <t>CREATE_AUTHOR</t>
+  </si>
+  <si>
+    <t>CREATE_DATETIME</t>
+  </si>
+  <si>
+    <t>UPDATE_AUTHOR</t>
+  </si>
+  <si>
+    <t>UPDATE_DATETIME</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>int(10,0)</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2017-04-25 16:53:50.0</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>状态有效或无效</t>
+  </si>
+  <si>
+    <t>无效</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>有效</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CODE-TYPE</t>
+  </si>
+  <si>
+    <t>编码类型</t>
+  </si>
+  <si>
+    <t>固定编码</t>
+  </si>
+  <si>
+    <t>SQL编码</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>NOT-EMPTY</t>
+  </si>
+  <si>
+    <t>必须输入标识</t>
+  </si>
+  <si>
+    <t>可空</t>
+  </si>
+  <si>
+    <t>非空</t>
+  </si>
+  <si>
+    <t>CITY-CHINA</t>
+  </si>
+  <si>
+    <t>常用城市定义</t>
+  </si>
+  <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>ENTITY-TYPE</t>
+  </si>
+  <si>
+    <t>实体类型</t>
+  </si>
+  <si>
+    <t>数据库表</t>
+  </si>
+  <si>
+    <t>数据库视图</t>
+  </si>
+  <si>
+    <t>数据实体</t>
+  </si>
+  <si>
+    <t>JDBC-DRIVER</t>
+  </si>
+  <si>
+    <t>JDBC驱动类列表MYSQL</t>
+  </si>
+  <si>
+    <t>JDBC驱动类列表DB2</t>
+  </si>
+  <si>
+    <t>com.ibm.db2.jcc.DB2Driver</t>
+  </si>
+  <si>
+    <t>JDBC驱动类列表ORACLE</t>
+  </si>
+  <si>
+    <t>oracle.jdbc.OracleDriver</t>
+  </si>
+  <si>
+    <t>JDBC驱动类列表POSTGRES</t>
+  </si>
+  <si>
+    <t>org.postgresql.Driver</t>
+  </si>
+  <si>
+    <t>DATABASE-TYPE</t>
+  </si>
+  <si>
+    <t>DB类型</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>POSTGRES</t>
+  </si>
+  <si>
+    <t>RES-ACC-LEVEL</t>
+  </si>
+  <si>
+    <t>访问级别定义</t>
+  </si>
+  <si>
+    <t>无权限</t>
+  </si>
+  <si>
+    <t>只读</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>读写</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>COMPONENT-TYPE</t>
+  </si>
+  <si>
+    <t>属性表现形式</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Pdf</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Textarea</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Image(Base64)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Image(Url)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>制约ID</t>
+  </si>
+  <si>
+    <t>制约名称</t>
+  </si>
+  <si>
+    <t>制约描述</t>
+  </si>
+  <si>
+    <t>制约SQLR</t>
+  </si>
+  <si>
+    <t>制约SQLU</t>
+  </si>
+  <si>
+    <t>CONS_SQLR</t>
+  </si>
+  <si>
+    <t>CONS_SQLU</t>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+  </si>
+  <si>
+    <t>SQL-OF-RES-LIST</t>
+  </si>
+  <si>
+    <t>取得所有资源编码信息</t>
+  </si>
+  <si>
+    <t>SELECT RES_NAME,RES_ID FROM UME_RESOURCE</t>
+  </si>
+  <si>
+    <t>SQL-OF-ROLE-LIST</t>
+  </si>
+  <si>
+    <t>取得所有角色编码信息</t>
+  </si>
+  <si>
+    <t>SELECT ROLE_NAME,ROLE_ID FROM UME_ROLE</t>
+  </si>
+  <si>
+    <t>实体ID</t>
+  </si>
+  <si>
+    <t>数据源名称</t>
+  </si>
+  <si>
+    <t>数据源连接URL</t>
+  </si>
+  <si>
+    <t>数据源JDBC驱动类名</t>
+  </si>
+  <si>
+    <t>数据源用户名</t>
+  </si>
+  <si>
+    <t>数据源密码</t>
+  </si>
+  <si>
+    <t>连接池最大等待时间</t>
+  </si>
+  <si>
+    <t>连接池最小闲置数</t>
+  </si>
+  <si>
+    <t>连接池最大闲置数</t>
+  </si>
+  <si>
+    <t>连接池最大活跃数</t>
+  </si>
+  <si>
+    <t>连接池初始化连接数</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>DRIVER_CLASS</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>MAX_WAIT</t>
+  </si>
+  <si>
+    <t>MIN_IDLE</t>
+  </si>
+  <si>
+    <t>MAX_IDLE</t>
+  </si>
+  <si>
+    <t>MAX_ACTIVE</t>
+  </si>
+  <si>
+    <t>INITIAL_SIZE</t>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>DS01</t>
+  </si>
+  <si>
+    <t>Refer Data Source 01</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://123.56.136.145:3306/DORA_EM?characterEncoding=UTF-8&amp;useSSL=false</t>
+  </si>
+  <si>
+    <t>doraTestAdm</t>
+  </si>
+  <si>
+    <t>doraTestAdm123</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Config Data Source </t>
+  </si>
+  <si>
+    <t>jdbc:mysql://218.61.208.224:3306/umedbm01?characterEncoding=UTF-8&amp;useSSL=false</t>
+  </si>
+  <si>
+    <t>采番名称</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>当前值</t>
+  </si>
+  <si>
+    <t>增量</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>前缀</t>
+  </si>
+  <si>
+    <t>后缀</t>
+  </si>
+  <si>
+    <t>是否可重复</t>
+  </si>
+  <si>
+    <t>格式化扩展</t>
+  </si>
+  <si>
+    <t>ITEM_NAME</t>
+  </si>
+  <si>
+    <t>MIN_VALUE</t>
+  </si>
+  <si>
+    <t>MAX_VALUE</t>
+  </si>
+  <si>
+    <t>CURRENT_INDEX</t>
+  </si>
+  <si>
+    <t>INCREMENT_VALUE</t>
+  </si>
+  <si>
+    <t>ITEM_LENGTH</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>POSTFIX</t>
+  </si>
+  <si>
+    <t>REPEATABLE</t>
+  </si>
+  <si>
+    <t>FORMATTER</t>
+  </si>
+  <si>
+    <t>bigint(19,0)</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>2017-10-08 12:53:14.0</t>
+  </si>
+  <si>
+    <t>MSG</t>
+  </si>
+  <si>
+    <t>2017-10-26 15:55:55.0</t>
+  </si>
+  <si>
+    <t>实体名称</t>
+  </si>
+  <si>
+    <t>实体类别</t>
+  </si>
+  <si>
+    <t>实体布局模版</t>
+  </si>
+  <si>
+    <t>实体参照表名</t>
+  </si>
+  <si>
+    <t>实体参照表数据源</t>
+  </si>
+  <si>
+    <t>参照表的只读属性值</t>
+  </si>
+  <si>
+    <t>实体参照表的隐藏属性集</t>
+  </si>
+  <si>
+    <t>实体参照表的不可用属性集</t>
+  </si>
+  <si>
+    <t>实体自定义显示前处理的ID</t>
+  </si>
+  <si>
+    <t>实体自定义保存前处理的ID</t>
+  </si>
+  <si>
+    <t>实体自定义验证器的ID</t>
+  </si>
+  <si>
+    <t>实体自定义EntityManager的ID</t>
+  </si>
+  <si>
+    <t>ENT_ID</t>
+  </si>
+  <si>
+    <t>ENT_NAME</t>
+  </si>
+  <si>
+    <t>ENT_TYPE</t>
+  </si>
+  <si>
+    <t>ENT_LAYOUT</t>
+  </si>
+  <si>
+    <t>REF_TBL_ID</t>
+  </si>
+  <si>
+    <t>REF_TBL_DATASOURCE</t>
+  </si>
+  <si>
+    <t>REF_TBL_READONLY_COLS</t>
+  </si>
+  <si>
+    <t>REF_TBL_HIDE_COLS</t>
+  </si>
+  <si>
+    <t>REF_TBL_DISABLE_COLS</t>
+  </si>
+  <si>
+    <t>PRE_PROC_DISP</t>
+  </si>
+  <si>
+    <t>PRE_PROC_SAVE</t>
+  </si>
+  <si>
+    <t>PRE_PROC_VALIDATE</t>
+  </si>
+  <si>
+    <t>CUS_ENTITY_MANAGER</t>
+  </si>
+  <si>
+    <t>系统角色（用户组）管理</t>
+  </si>
+  <si>
+    <t>CREATE_AUTHOR,CREATE_DATETIME,UPDATE_AUTHOR,UPDATE_DATETIME</t>
+  </si>
+  <si>
+    <t>superuser</t>
+  </si>
+  <si>
+    <t>2017-04-25 16:53:51.0</t>
+  </si>
+  <si>
+    <t>系统用户管理</t>
+  </si>
+  <si>
+    <t>数据源管理</t>
+  </si>
+  <si>
+    <t>系统资源定义及管理</t>
+  </si>
+  <si>
+    <t>系统角色的访问权限分配</t>
+  </si>
+  <si>
+    <t>系统用户角色分配</t>
+  </si>
+  <si>
+    <t>属性所属实体ID</t>
+  </si>
+  <si>
+    <t>属性ID</t>
+  </si>
+  <si>
+    <t>属性名称</t>
+  </si>
+  <si>
+    <t>属性子类型（扩展类型）</t>
+  </si>
+  <si>
+    <t>属性是否非空</t>
+  </si>
+  <si>
+    <t>属性默认值</t>
+  </si>
+  <si>
+    <t>属性最小长度</t>
+  </si>
+  <si>
+    <t>属性最大长度</t>
+  </si>
+  <si>
+    <t>属性最小值</t>
+  </si>
+  <si>
+    <t>属性最大值</t>
+  </si>
+  <si>
+    <t>属性制约类型</t>
+  </si>
+  <si>
+    <t>属性制约ID</t>
+  </si>
+  <si>
+    <t>属性显示类别</t>
+  </si>
+  <si>
+    <t>显示格式</t>
+  </si>
+  <si>
+    <t>属性编辑格式</t>
+  </si>
+  <si>
+    <t>属性自定义显示前处理</t>
+  </si>
+  <si>
+    <t>属性自定义保存前处理</t>
+  </si>
+  <si>
+    <t>COL_ID</t>
+  </si>
+  <si>
+    <t>COL_NAME</t>
+  </si>
+  <si>
+    <t>DATA_SUB_TYPE</t>
+  </si>
+  <si>
+    <t>NOT_NULL</t>
+  </si>
+  <si>
+    <t>DEFAULT_VALUE</t>
+  </si>
+  <si>
+    <t>DATA_LENGTH_MIN</t>
+  </si>
+  <si>
+    <t>DATA_LENGTH_MAX</t>
+  </si>
+  <si>
+    <t>DATA_RANGE_MIN</t>
+  </si>
+  <si>
+    <t>DATA_RANGE_MAX</t>
+  </si>
+  <si>
+    <t>CONSTRAINT_TYPE</t>
+  </si>
+  <si>
+    <t>CONSTRAINT_REF</t>
+  </si>
+  <si>
+    <t>DISP_TYPE</t>
+  </si>
+  <si>
+    <t>DISP_FORMAT</t>
+  </si>
+  <si>
+    <t>EDIT_FORMAT</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>FEED_PHOTO1</t>
+  </si>
+  <si>
+    <t>LOBtoB64</t>
+  </si>
+  <si>
+    <t>B64toLOB</t>
+  </si>
+  <si>
+    <t>FEED_PHOTO2</t>
+  </si>
+  <si>
+    <t>FEED_PHOTO3</t>
+  </si>
+  <si>
+    <t>FEED_REPLY_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>UTF8DEC</t>
+  </si>
+  <si>
+    <t>UTF8ENC</t>
+  </si>
+  <si>
+    <t>USER_STATUS</t>
+  </si>
+  <si>
+    <t>用户状态</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://localhost:3306/[SampleDB]?characterEncoding=UTF-8</t>
+  </si>
+  <si>
+    <t>RES_DISABLE</t>
+  </si>
+  <si>
+    <t>资源状态</t>
+  </si>
+  <si>
+    <t>RES-STATUS-FLAG</t>
+  </si>
+  <si>
+    <t>ACC_LEVEL</t>
+  </si>
+  <si>
+    <t>访问级别／类型</t>
+  </si>
+  <si>
+    <t>ACC_RES_ID</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>资源ID</t>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>资源分组</t>
+  </si>
+  <si>
+    <t>资源链接</t>
+  </si>
+  <si>
+    <t>资源排序序号</t>
+  </si>
+  <si>
+    <t>RES_ID</t>
+  </si>
+  <si>
+    <t>RES_TYPE</t>
+  </si>
+  <si>
+    <t>RES_NAME</t>
+  </si>
+  <si>
+    <t>RES_GROUP</t>
+  </si>
+  <si>
+    <t>RES_LINK</t>
+  </si>
+  <si>
+    <t>RES_INDEX</t>
+  </si>
+  <si>
+    <t>RES_STATUS</t>
+  </si>
+  <si>
+    <t>EM_CODE</t>
+  </si>
+  <si>
+    <t>通用常量管理</t>
+  </si>
+  <si>
+    <t>系统资源</t>
+  </si>
+  <si>
+    <t>2017-10-08 12:47:27.0</t>
+  </si>
+  <si>
     <t>UME_SEQ</t>
   </si>
   <si>
-    <t>UME_USER</t>
-  </si>
-  <si>
-    <t>UME_USER_ROLE</t>
-  </si>
-  <si>
-    <t>umedbm01</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>类别编号</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>编码名称</t>
-  </si>
-  <si>
-    <t>编码描述</t>
-  </si>
-  <si>
-    <t>表示值</t>
-  </si>
-  <si>
-    <t>存贮值</t>
-  </si>
-  <si>
-    <t>存贮类型</t>
-  </si>
-  <si>
-    <t>创建者</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>更新者</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>CONS_ID</t>
-  </si>
-  <si>
-    <t>CONS_SEQ</t>
-  </si>
-  <si>
-    <t>CONS_NAME</t>
-  </si>
-  <si>
-    <t>CONS_DESC</t>
-  </si>
-  <si>
-    <t>DISP_VALUE</t>
-  </si>
-  <si>
-    <t>STORE_VALUE</t>
-  </si>
-  <si>
-    <t>STORE_TYPE</t>
-  </si>
-  <si>
-    <t>CREATE_AUTHOR</t>
-  </si>
-  <si>
-    <t>CREATE_DATETIME</t>
-  </si>
-  <si>
-    <t>UPDATE_AUTHOR</t>
-  </si>
-  <si>
-    <t>UPDATE_DATETIME</t>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
-    <t>int(10,0)</t>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>GENDER</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>2017-04-25 16:53:50.0</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>状态有效或无效</t>
-  </si>
-  <si>
-    <t>无效</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>有效</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CODE-TYPE</t>
-  </si>
-  <si>
-    <t>编码类型</t>
-  </si>
-  <si>
-    <t>固定编码</t>
-  </si>
-  <si>
-    <t>SQL编码</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>NOT-EMPTY</t>
-  </si>
-  <si>
-    <t>必须输入标识</t>
-  </si>
-  <si>
-    <t>可空</t>
-  </si>
-  <si>
-    <t>非空</t>
-  </si>
-  <si>
-    <t>CITY-CHINA</t>
-  </si>
-  <si>
-    <t>常用城市定义</t>
-  </si>
-  <si>
-    <t>大连</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>ENTITY-TYPE</t>
-  </si>
-  <si>
-    <t>实体类型</t>
-  </si>
-  <si>
-    <t>数据库表</t>
-  </si>
-  <si>
-    <t>数据库视图</t>
-  </si>
-  <si>
-    <t>数据实体</t>
-  </si>
-  <si>
-    <t>JDBC-DRIVER</t>
-  </si>
-  <si>
-    <t>JDBC驱动类列表MYSQL</t>
-  </si>
-  <si>
-    <t>JDBC驱动类列表DB2</t>
-  </si>
-  <si>
-    <t>com.ibm.db2.jcc.DB2Driver</t>
-  </si>
-  <si>
-    <t>JDBC驱动类列表ORACLE</t>
-  </si>
-  <si>
-    <t>oracle.jdbc.OracleDriver</t>
-  </si>
-  <si>
-    <t>JDBC驱动类列表POSTGRES</t>
-  </si>
-  <si>
-    <t>org.postgresql.Driver</t>
-  </si>
-  <si>
-    <t>DATABASE-TYPE</t>
-  </si>
-  <si>
-    <t>DB类型</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>DB2</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>POSTGRES</t>
-  </si>
-  <si>
-    <t>RES-ACC-LEVEL</t>
-  </si>
-  <si>
-    <t>访问级别定义</t>
-  </si>
-  <si>
-    <t>无权限</t>
-  </si>
-  <si>
-    <t>只读</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>读写</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>COMPONENT-TYPE</t>
-  </si>
-  <si>
-    <t>属性表现形式</t>
-  </si>
-  <si>
-    <t>Textbox</t>
-  </si>
-  <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
-    <t>Checkbox</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Pdf</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Textarea</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Image(Base64)</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Image(Url)</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>制约ID</t>
-  </si>
-  <si>
-    <t>制约名称</t>
-  </si>
-  <si>
-    <t>制约描述</t>
-  </si>
-  <si>
-    <t>制约SQLR</t>
-  </si>
-  <si>
-    <t>制约SQLU</t>
-  </si>
-  <si>
-    <t>CONS_SQLR</t>
-  </si>
-  <si>
-    <t>CONS_SQLU</t>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
-  </si>
-  <si>
-    <t>SQL-OF-RES-LIST</t>
-  </si>
-  <si>
-    <t>取得所有资源编码信息</t>
-  </si>
-  <si>
-    <t>SELECT RES_NAME,RES_ID FROM UME_RESOURCE</t>
-  </si>
-  <si>
-    <t>SQL-OF-ROLE-LIST</t>
-  </si>
-  <si>
-    <t>取得所有角色编码信息</t>
-  </si>
-  <si>
-    <t>SELECT ROLE_NAME,ROLE_ID FROM UME_ROLE</t>
-  </si>
-  <si>
-    <t>实体ID</t>
-  </si>
-  <si>
-    <t>数据源名称</t>
-  </si>
-  <si>
-    <t>数据源连接URL</t>
-  </si>
-  <si>
-    <t>数据源JDBC驱动类名</t>
-  </si>
-  <si>
-    <t>数据源用户名</t>
-  </si>
-  <si>
-    <t>数据源密码</t>
-  </si>
-  <si>
-    <t>连接池最大等待时间</t>
-  </si>
-  <si>
-    <t>连接池最小闲置数</t>
-  </si>
-  <si>
-    <t>连接池最大闲置数</t>
-  </si>
-  <si>
-    <t>连接池最大活跃数</t>
-  </si>
-  <si>
-    <t>连接池初始化连接数</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>DRIVER_CLASS</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>MAX_WAIT</t>
-  </si>
-  <si>
-    <t>MIN_IDLE</t>
-  </si>
-  <si>
-    <t>MAX_IDLE</t>
-  </si>
-  <si>
-    <t>MAX_ACTIVE</t>
-  </si>
-  <si>
-    <t>INITIAL_SIZE</t>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-  </si>
-  <si>
-    <t>DS01</t>
-  </si>
-  <si>
-    <t>Refer Data Source 01</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://123.56.136.145:3306/DORA_EM?characterEncoding=UTF-8&amp;useSSL=false</t>
-  </si>
-  <si>
-    <t>doraTestAdm</t>
-  </si>
-  <si>
-    <t>doraTestAdm123</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Config Data Source </t>
-  </si>
-  <si>
-    <t>jdbc:mysql://218.61.208.224:3306/umedbm01?characterEncoding=UTF-8&amp;useSSL=false</t>
-  </si>
-  <si>
-    <t>实体名称</t>
-  </si>
-  <si>
-    <t>实体类别</t>
-  </si>
-  <si>
-    <t>实体布局模版</t>
-  </si>
-  <si>
-    <t>实体参照表名</t>
-  </si>
-  <si>
-    <t>实体参照表数据源</t>
-  </si>
-  <si>
-    <t>参照表的只读属性值</t>
-  </si>
-  <si>
-    <t>实体参照表的隐藏属性集</t>
-  </si>
-  <si>
-    <t>实体参照表的不可用属性集</t>
-  </si>
-  <si>
-    <t>实体自定义显示前处理的ID</t>
-  </si>
-  <si>
-    <t>实体自定义保存前处理的ID</t>
-  </si>
-  <si>
-    <t>实体自定义验证器的ID</t>
-  </si>
-  <si>
-    <t>实体自定义EntityManager的ID</t>
-  </si>
-  <si>
-    <t>ENT_ID</t>
-  </si>
-  <si>
-    <t>ENT_NAME</t>
-  </si>
-  <si>
-    <t>ENT_TYPE</t>
-  </si>
-  <si>
-    <t>ENT_LAYOUT</t>
-  </si>
-  <si>
-    <t>REF_TBL_ID</t>
-  </si>
-  <si>
-    <t>REF_TBL_DATASOURCE</t>
-  </si>
-  <si>
-    <t>REF_TBL_READONLY_COLS</t>
-  </si>
-  <si>
-    <t>REF_TBL_HIDE_COLS</t>
-  </si>
-  <si>
-    <t>REF_TBL_DISABLE_COLS</t>
-  </si>
-  <si>
-    <t>PRE_PROC_DISP</t>
-  </si>
-  <si>
-    <t>PRE_PROC_SAVE</t>
-  </si>
-  <si>
-    <t>PRE_PROC_VALIDATE</t>
-  </si>
-  <si>
-    <t>CUS_ENTITY_MANAGER</t>
-  </si>
-  <si>
-    <t>系统角色（用户组）管理</t>
-  </si>
-  <si>
-    <t>CREATE_AUTHOR,CREATE_DATETIME,UPDATE_AUTHOR,UPDATE_DATETIME</t>
-  </si>
-  <si>
-    <t>superuser</t>
-  </si>
-  <si>
-    <t>2017-04-25 16:53:51.0</t>
-  </si>
-  <si>
-    <t>系统用户管理</t>
-  </si>
-  <si>
-    <t>数据源管理</t>
-  </si>
-  <si>
-    <t>系统资源定义及管理</t>
-  </si>
-  <si>
-    <t>系统角色的访问权限分配</t>
-  </si>
-  <si>
-    <t>系统用户角色分配</t>
-  </si>
-  <si>
-    <t>属性所属实体ID</t>
-  </si>
-  <si>
-    <t>属性ID</t>
-  </si>
-  <si>
-    <t>属性名称</t>
-  </si>
-  <si>
-    <t>属性子类型（扩展类型）</t>
-  </si>
-  <si>
-    <t>属性是否非空</t>
-  </si>
-  <si>
-    <t>属性默认值</t>
-  </si>
-  <si>
-    <t>属性最小长度</t>
-  </si>
-  <si>
-    <t>属性最大长度</t>
-  </si>
-  <si>
-    <t>属性最小值</t>
-  </si>
-  <si>
-    <t>属性最大值</t>
-  </si>
-  <si>
-    <t>属性制约类型</t>
-  </si>
-  <si>
-    <t>属性制约ID</t>
-  </si>
-  <si>
-    <t>属性显示类别</t>
-  </si>
-  <si>
-    <t>显示格式</t>
-  </si>
-  <si>
-    <t>属性编辑格式</t>
-  </si>
-  <si>
-    <t>属性自定义显示前处理</t>
-  </si>
-  <si>
-    <t>属性自定义保存前处理</t>
-  </si>
-  <si>
-    <t>COL_ID</t>
-  </si>
-  <si>
-    <t>COL_NAME</t>
-  </si>
-  <si>
-    <t>DATA_SUB_TYPE</t>
-  </si>
-  <si>
-    <t>NOT_NULL</t>
-  </si>
-  <si>
-    <t>DEFAULT_VALUE</t>
-  </si>
-  <si>
-    <t>DATA_LENGTH_MIN</t>
-  </si>
-  <si>
-    <t>DATA_LENGTH_MAX</t>
-  </si>
-  <si>
-    <t>DATA_RANGE_MIN</t>
-  </si>
-  <si>
-    <t>DATA_RANGE_MAX</t>
-  </si>
-  <si>
-    <t>CONSTRAINT_TYPE</t>
-  </si>
-  <si>
-    <t>CONSTRAINT_REF</t>
-  </si>
-  <si>
-    <t>DISP_TYPE</t>
-  </si>
-  <si>
-    <t>DISP_FORMAT</t>
-  </si>
-  <si>
-    <t>EDIT_FORMAT</t>
-  </si>
-  <si>
-    <t>XXXX</t>
-  </si>
-  <si>
-    <t>FEED_PHOTO1</t>
-  </si>
-  <si>
-    <t>LOBtoB64</t>
-  </si>
-  <si>
-    <t>B64toLOB</t>
-  </si>
-  <si>
-    <t>FEED_PHOTO2</t>
-  </si>
-  <si>
-    <t>FEED_PHOTO3</t>
-  </si>
-  <si>
-    <t>FEED_REPLY_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>UTF8DEC</t>
-  </si>
-  <si>
-    <t>UTF8ENC</t>
-  </si>
-  <si>
-    <t>USER_STATUS</t>
-  </si>
-  <si>
-    <t>用户状态</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://localhost:3306/[SampleDB]?characterEncoding=UTF-8</t>
-  </si>
-  <si>
-    <t>RES_DISABLE</t>
-  </si>
-  <si>
-    <t>资源状态</t>
-  </si>
-  <si>
-    <t>RES-STATUS-FLAG</t>
-  </si>
-  <si>
-    <t>ACC_LEVEL</t>
-  </si>
-  <si>
-    <t>访问级别／类型</t>
-  </si>
-  <si>
-    <t>ACC_RES_ID</t>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-  </si>
-  <si>
-    <t>资源ID</t>
-  </si>
-  <si>
-    <t>资源类型</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>资源分组</t>
-  </si>
-  <si>
-    <t>资源链接</t>
-  </si>
-  <si>
-    <t>资源排序序号</t>
-  </si>
-  <si>
-    <t>RES_ID</t>
-  </si>
-  <si>
-    <t>RES_TYPE</t>
-  </si>
-  <si>
-    <t>RES_NAME</t>
-  </si>
-  <si>
-    <t>RES_GROUP</t>
-  </si>
-  <si>
-    <t>RES_LINK</t>
-  </si>
-  <si>
-    <t>RES_INDEX</t>
-  </si>
-  <si>
-    <t>RES_STATUS</t>
-  </si>
-  <si>
-    <t>EM_CODE</t>
-  </si>
-  <si>
-    <t>通用常量管理</t>
-  </si>
-  <si>
-    <t>系统资源</t>
-  </si>
-  <si>
-    <t>2017-10-08 12:47:27.0</t>
-  </si>
-  <si>
     <t>自增长序列管理</t>
   </si>
   <si>
@@ -938,84 +1022,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>采番名称</t>
-  </si>
-  <si>
-    <t>最小值</t>
-  </si>
-  <si>
-    <t>最大值</t>
-  </si>
-  <si>
-    <t>当前值</t>
-  </si>
-  <si>
-    <t>增量</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-  <si>
-    <t>前缀</t>
-  </si>
-  <si>
-    <t>后缀</t>
-  </si>
-  <si>
-    <t>是否可重复</t>
-  </si>
-  <si>
-    <t>格式化扩展</t>
-  </si>
-  <si>
-    <t>ITEM_NAME</t>
-  </si>
-  <si>
-    <t>MIN_VALUE</t>
-  </si>
-  <si>
-    <t>MAX_VALUE</t>
-  </si>
-  <si>
-    <t>CURRENT_INDEX</t>
-  </si>
-  <si>
-    <t>INCREMENT_VALUE</t>
-  </si>
-  <si>
-    <t>ITEM_LENGTH</t>
-  </si>
-  <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
-    <t>POSTFIX</t>
-  </si>
-  <si>
-    <t>REPEATABLE</t>
-  </si>
-  <si>
-    <t>FORMATTER</t>
-  </si>
-  <si>
-    <t>bigint(19,0)</t>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-  </si>
-  <si>
-    <t>MSG</t>
-  </si>
-  <si>
-    <t>2017-10-08 12:53:14.0</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>用户识别ID</t>
   </si>
   <si>
@@ -1031,15 +1037,6 @@
     <t>用户备用手机</t>
   </si>
   <si>
-    <t>用户身份证号</t>
-  </si>
-  <si>
-    <t>用户驾驶证号</t>
-  </si>
-  <si>
-    <t>用户护照号</t>
-  </si>
-  <si>
     <t>用户地址</t>
   </si>
   <si>
@@ -1049,9 +1046,6 @@
     <t>用户备用邮箱</t>
   </si>
   <si>
-    <t>用户等级</t>
-  </si>
-  <si>
     <t>用户账户状态</t>
   </si>
   <si>
@@ -1067,28 +1061,16 @@
     <t>USER_MOBILE</t>
   </si>
   <si>
-    <t>USER_MOBILE_BAK</t>
-  </si>
-  <si>
-    <t>USER_IDENTITY_CARD</t>
-  </si>
-  <si>
-    <t>USER_DRIVE_LICENSE</t>
-  </si>
-  <si>
-    <t>USER_PASSPORT</t>
-  </si>
-  <si>
-    <t>USER_ADDRESS</t>
+    <t>USER_NICK_NAME</t>
+  </si>
+  <si>
+    <t>USER_HEAD_IMAGE</t>
   </si>
   <si>
     <t>USER_EMAIL</t>
   </si>
   <si>
-    <t>USER_EMAIL_BAK</t>
-  </si>
-  <si>
-    <t>USER_LEVEL</t>
+    <t>USER_DESC</t>
   </si>
   <si>
     <t>varchar(16)</t>
@@ -1850,6 +1832,36 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
@@ -1986,36 +1998,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -3089,7 +3071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1509">
+  <cellXfs count="1469">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3677,126 +3659,43 @@
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -3826,10 +3725,6 @@
     <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
@@ -3847,10 +3742,6 @@
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
@@ -3868,10 +3759,6 @@
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
@@ -3990,158 +3877,18 @@
     <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
@@ -4159,6 +3906,16 @@
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
@@ -4170,6 +3927,16 @@
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
@@ -4261,7 +4028,175 @@
     <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="44" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
@@ -4269,6 +4204,10 @@
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
@@ -4276,6 +4215,10 @@
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
@@ -4303,26 +4246,90 @@
     <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="48" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
@@ -4348,107 +4355,66 @@
     <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="52" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -4487,18 +4453,10 @@
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
@@ -4521,25 +4479,9 @@
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="60" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -5250,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5315,341 +5257,141 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1191" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="1192" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="1193" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="1194" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" s="1195" t="s">
+      <c r="A1" s="1219" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="1220" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="1221" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="1222" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1196" t="s">
+      <c r="E1" s="1223" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1197" t="s">
+      <c r="F1" s="1224" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1198" t="s">
+      <c r="G1" s="1225" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1199" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="1200" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="1201" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="1202" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="1203" t="s">
+      <c r="A2" s="1226" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1227" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="1228" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="1229" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="1204" t="s">
+      <c r="E2" s="1230" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="1205" t="s">
+      <c r="F2" s="1231" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1206" t="s">
+      <c r="G2" s="1232" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1207" t="s">
+      <c r="A3" s="1233" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1208" t="s">
+      <c r="B3" s="1234" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1235" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1236" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1209" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1210" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1211" t="s">
+      <c r="E3" s="1237" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1238" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="1212" t="s">
+      <c r="G3" s="1239" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1213" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="1214" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1215" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="1216" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="1217" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1218" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="1219" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1220" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="1221" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="1222" t="s">
-        <v>274</v>
+      <c r="A4" s="1240" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="1241" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="1242" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="1243" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1244" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="1245" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1246" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1223" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="1224" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="1225" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="1226" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="1227" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1228" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" s="1229" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="1230" t="s">
-        <v>274</v>
+      <c r="A5" s="1247" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="1248" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="1249" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="1250" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1251" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="1252" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1253" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1231" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="1232" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="1233" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="1234" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="1235" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1236" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" s="1237" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1238" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1239" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="1240" t="s">
-        <v>297</v>
-      </c>
-      <c r="C7" s="1241" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="1242" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E7" s="1243" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1244" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="1245" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="1246" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1247" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="1248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1249" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="1250" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="1251" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1252" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="1253" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="1254" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1255" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="1256" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1257" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="1258" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="1259" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1260" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="1261" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="1262" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1263" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="1264" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1265" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="1266" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="1267" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1268" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="1269" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="1270" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1271" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="1272" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1273" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="1274" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="1275" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1276" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" s="1277" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="1278" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1279" t="s">
-        <v>292</v>
-      </c>
-      <c r="B12" s="1280" t="s">
-        <v>297</v>
-      </c>
-      <c r="C12" s="1281" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="1282" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="1283" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1284" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" s="1285" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="1286" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1287" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="1288" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1289" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="1290" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E13" s="1291" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1292" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="1293" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="1294" t="s">
-        <v>274</v>
+      <c r="A6" s="1254" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="1255" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="1256" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1257" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1258" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="1259" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1260" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5666,223 +5408,289 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1295" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="1296" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="1297" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="1298" t="s">
+      <c r="A1" s="1261" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="1262" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1263" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="1264" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="1265" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1266" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1267" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1268" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1269" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1270" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="1271" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="1272" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1273" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1274" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1275" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1276" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1277" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1278" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1279" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1280" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1281" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1282" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1283" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1284" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1285" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="1286" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="1287" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1288" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1289" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1290" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="1299" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="1300" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="1301" t="s">
-        <v>304</v>
-      </c>
-      <c r="H1" s="1302" t="s">
-        <v>305</v>
-      </c>
-      <c r="I1" s="1303" t="s">
-        <v>306</v>
-      </c>
-      <c r="J1" s="1304" t="s">
-        <v>307</v>
-      </c>
-      <c r="K1" s="1305" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1306" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1307" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1308" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1309" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="1310" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="1311" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="1312" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="1313" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" s="1314" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="1315" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="1316" t="s">
+      <c r="G4" s="1291" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1292" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1293" t="s">
         <v>315</v>
       </c>
-      <c r="I2" s="1317" t="s">
-        <v>316</v>
-      </c>
-      <c r="J2" s="1318" t="s">
-        <v>317</v>
-      </c>
-      <c r="K2" s="1319" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="1320" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="1321" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="1322" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1323" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="1324" t="s">
+      <c r="B5" s="1294" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="1295" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="1296" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E5" s="1297" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1298" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="1299" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1300" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1301" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="1302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1304" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E6" s="1305" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1306" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="1307" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1308" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1309" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="1325" t="s">
+      <c r="B7" s="1310" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1311" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1312" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="1313" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1314" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="1315" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1316" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1317" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="1326" t="s">
+      <c r="B8" s="1318" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1319" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1320" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="1321" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1322" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="1323" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1324" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1325" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="1327" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="1328" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1329" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1330" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1331" t="s">
-        <v>319</v>
-      </c>
-      <c r="J3" s="1332" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="1333" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="1334" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="1335" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="1336" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1337" t="s">
+      <c r="B9" s="1326" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1327" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1328" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="1329" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1330" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="1331" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1332" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1333" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="1338" t="n">
+      <c r="B10" s="1334" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="1335" t="n">
         <v>1.0</v>
       </c>
-      <c r="C4" s="1339" t="n">
-        <v>99999.0</v>
-      </c>
-      <c r="D4" s="1340" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="E4" s="1341" t="n">
+      <c r="D10" s="1336" t="n">
         <v>1.0</v>
       </c>
-      <c r="F4" s="1342" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G4" s="1343" t="s">
+      <c r="E10" s="1337" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1338" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="1339" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1340" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1341" t="s">
         <v>320</v>
       </c>
-      <c r="H4" s="1344" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1345" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="1346" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1347" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1348" t="s">
-        <v>321</v>
-      </c>
-      <c r="M4" s="1349" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1350" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1351" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="1352" t="n">
+      <c r="B11" s="1342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1343" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5" s="1353" t="n">
-        <v>9.9999999E7</v>
-      </c>
-      <c r="D5" s="1354" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="1355" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="1356" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G5" s="1357" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="1358" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1359" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="1360" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1361" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1362" t="s">
-        <v>321</v>
-      </c>
-      <c r="M5" s="1363" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="1364" t="s">
-        <v>321</v>
+      <c r="D11" s="1344" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E11" s="1345" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1346" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="1347" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1348" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5899,321 +5707,249 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1365" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="1366" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="1367" t="s">
+      <c r="A1" s="1349" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="1368" t="s">
+      <c r="B1" s="1350" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="1369" t="s">
+      <c r="C1" s="1351" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="1370" t="s">
+      <c r="D1" s="1352" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="1371" t="s">
+      <c r="E1" s="1353" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="1372" t="s">
+      <c r="F1" s="1354" t="s">
         <v>331</v>
       </c>
-      <c r="I1" s="1373" t="s">
+      <c r="G1" s="1355" t="s">
         <v>332</v>
       </c>
-      <c r="J1" s="1374" t="s">
+      <c r="H1" s="1356" t="s">
         <v>333</v>
       </c>
-      <c r="K1" s="1375" t="s">
+      <c r="I1" s="1357" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="1376" t="s">
+      <c r="J1" s="1358" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1359" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1360" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1361" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1362" t="s">
         <v>335</v>
       </c>
-      <c r="M1" s="1377" t="s">
+      <c r="B2" s="1363" t="s">
         <v>336</v>
       </c>
-      <c r="N1" s="1378" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1379" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1380" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1381" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1382" t="s">
+      <c r="C2" s="1364" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="1383" t="s">
+      <c r="D2" s="1365" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="1384" t="s">
+      <c r="E2" s="1366" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="1385" t="s">
+      <c r="F2" s="1367" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="1386" t="s">
+      <c r="G2" s="1368" t="s">
         <v>341</v>
       </c>
-      <c r="F2" s="1387" t="s">
+      <c r="H2" s="1369" t="s">
         <v>342</v>
       </c>
-      <c r="G2" s="1388" t="s">
+      <c r="I2" s="1370" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="1371" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1372" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1373" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1374" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1375" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1376" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1377" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1378" t="s">
         <v>343</v>
       </c>
-      <c r="H2" s="1389" t="s">
+      <c r="E3" s="1379" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1380" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1381" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1382" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1383" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1384" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1385" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="1386" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="1387" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1388" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1389" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="1390" t="s">
+      <c r="C4" s="1390" t="s">
         <v>345</v>
       </c>
-      <c r="J2" s="1391" t="s">
+      <c r="D4" s="1391" t="s">
         <v>346</v>
       </c>
-      <c r="K2" s="1392" t="s">
+      <c r="E4" s="1392" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1393" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1394" t="s">
         <v>347</v>
       </c>
-      <c r="L2" s="1393" t="s">
+      <c r="H4" s="1395" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1396" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="1397" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1398" t="s">
+        <v>301</v>
+      </c>
+      <c r="L4" s="1399" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="1400" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1401" t="s">
         <v>348</v>
       </c>
-      <c r="M2" s="1394" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" s="1395" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="1396" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="1397" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="1398" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1399" t="s">
+      <c r="B5" s="1402" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="1403" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="1404" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="1400" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1401" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1402" t="s">
+      <c r="E5" s="1405" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1406" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1407" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="1408" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1409" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="1410" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1411" t="s">
+        <v>301</v>
+      </c>
+      <c r="L5" s="1412" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="1413" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1414" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="1415" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="1416" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="1417" t="s">
         <v>349</v>
       </c>
-      <c r="E3" s="1403" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" s="1404" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1405" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="1406" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1407" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1408" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="1409" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="1410" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1411" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="1412" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="1413" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="1414" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1415" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1416" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1417" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="1418" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="1419" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="1420" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1421" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1422" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1423" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1424" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1425" t="s">
+      <c r="E6" s="1418" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1419" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1420" t="s">
         <v>353</v>
       </c>
-      <c r="K4" s="1426" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1427" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1428" t="n">
+      <c r="H6" s="1421" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1422" t="n">
         <v>1.0</v>
       </c>
-      <c r="N4" s="1429" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="1430" t="s">
-        <v>274</v>
-      </c>
-      <c r="P4" s="1431" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="1432" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1433" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" s="1434" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="1435" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="1436" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="1437" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1438" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1439" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1440" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1441" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1442" t="s">
-        <v>356</v>
-      </c>
-      <c r="K5" s="1443" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1444" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1445" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="1446" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="1447" t="s">
-        <v>274</v>
-      </c>
-      <c r="P5" s="1448" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="1449" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1450" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="1451" t="s">
-        <v>358</v>
-      </c>
-      <c r="C6" s="1452" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="1453" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="1454" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1455" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1456" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1457" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1458" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1459" t="s">
-        <v>359</v>
-      </c>
-      <c r="K6" s="1460" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="1461" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1462" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="1463" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="1464" t="s">
-        <v>274</v>
-      </c>
-      <c r="P6" s="1465" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="1466" t="s">
-        <v>274</v>
+      <c r="J6" s="1423" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1424" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6" s="1425" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="1426" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6230,143 +5966,143 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1467" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="1468" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1" s="1469" t="s">
+      <c r="A1" s="1427" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="1428" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="1429" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1470" t="s">
+      <c r="D1" s="1430" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1471" t="s">
+      <c r="E1" s="1431" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1472" t="s">
+      <c r="F1" s="1432" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1473" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="1474" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="1475" t="s">
+      <c r="A2" s="1433" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="1434" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="1435" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1476" t="s">
+      <c r="D2" s="1436" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1477" t="s">
+      <c r="E2" s="1437" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1478" t="s">
+      <c r="F2" s="1438" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1479" t="s">
+      <c r="A3" s="1439" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1480" t="s">
+      <c r="B3" s="1440" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1481" t="s">
+      <c r="C3" s="1441" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1482" t="s">
+      <c r="D3" s="1442" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="1483" t="s">
+      <c r="E3" s="1443" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="1484" t="s">
+      <c r="F3" s="1444" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1485" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1486" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="1487" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1488" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="1489" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1490" t="s">
-        <v>274</v>
+      <c r="A4" s="1445" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1446" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="1447" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1448" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="1449" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1450" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1491" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1492" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="1493" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1494" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="1495" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1496" t="s">
-        <v>274</v>
+      <c r="A5" s="1451" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1452" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="1453" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1454" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="1455" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1456" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1497" t="s">
-        <v>354</v>
-      </c>
-      <c r="B6" s="1498" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="1499" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1500" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="1501" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1502" t="s">
-        <v>274</v>
+      <c r="A6" s="1457" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="1458" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="1459" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1460" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="1461" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1462" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1503" t="s">
-        <v>357</v>
-      </c>
-      <c r="B7" s="1504" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="1505" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1506" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="1507" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1508" t="s">
-        <v>274</v>
+      <c r="A7" s="1463" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="1464" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="1465" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1466" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="1467" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1468" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6378,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.3984375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6404,7 +6140,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -6413,7 +6149,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -6422,7 +6158,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -6431,73 +6167,73 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -8305,479 +8041,222 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="560" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B1" s="561" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C1" s="562" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="563" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" s="564" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F1" s="565" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G1" s="566" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H1" s="567" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I1" s="568" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J1" s="569" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K1" s="570" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="L1" s="571" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="572" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="573" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="574" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="572" t="s">
+      <c r="B2" s="575" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="573" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="574" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="575" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="576" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="577" t="s">
+      <c r="C2" s="576" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="578" t="s">
+      <c r="D2" s="577" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="579" t="s">
+      <c r="E2" s="578" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="580" t="s">
+      <c r="F2" s="579" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="581" t="s">
+      <c r="G2" s="580" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="582" t="s">
+      <c r="H2" s="581" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="583" t="s">
+      <c r="I2" s="582" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="584" t="s">
+      <c r="J2" s="583" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="585" t="s">
+      <c r="K2" s="584" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="585" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="586" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="587" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="588" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="589" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="586" t="s">
+      <c r="C3" s="590" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="591" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="592" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="593" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="594" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="595" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="596" t="s">
         <v>195</v>
       </c>
-      <c r="K2" s="587" t="s">
+      <c r="J3" s="597" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="598" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="599" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="600" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="601" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="602" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="588" t="s">
+      <c r="B4" s="603" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="604" t="n">
+        <v>9.9999999E7</v>
+      </c>
+      <c r="D4" s="605" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="606" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="607" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G4" s="608" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="589" t="s">
+      <c r="H4" s="609" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="610" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="611" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="612" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="613" t="s">
         <v>198</v>
       </c>
-      <c r="N2" s="590" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="591" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="592" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="593" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="594" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="595" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="596" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="597" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="598" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="599" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="600" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="601" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="602" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="603" t="s">
-        <v>163</v>
-      </c>
-      <c r="K3" s="604" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="605" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" s="606" t="s">
-        <v>163</v>
-      </c>
-      <c r="N3" s="607" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="608" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="609" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="610" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="611" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="612" t="s">
+      <c r="M4" s="614" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="615" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="616" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="613" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="614" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="615" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="616" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="617" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="618" t="s">
+      <c r="B5" s="617" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="618" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="D5" s="619" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="E5" s="620" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="621" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="622" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="623" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="624" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="625" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="626" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="627" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="628" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="629" t="s">
         <v>200</v>
-      </c>
-      <c r="I4" s="619" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="620" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="621" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="622" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="623" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="624" t="s">
-        <v>201</v>
-      </c>
-      <c r="O4" s="625" t="s">
-        <v>202</v>
-      </c>
-      <c r="P4" s="626" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="627" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="628" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="629" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="630" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="631" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="632" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="633" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="634" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="635" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="636" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="637" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="638" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="639" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="640" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="641" t="s">
-        <v>201</v>
-      </c>
-      <c r="O5" s="642" t="s">
-        <v>202</v>
-      </c>
-      <c r="P5" s="643" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="644" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="645" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="646" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="647" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="648" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="649" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="650" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="651" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="652" t="s">
-        <v>200</v>
-      </c>
-      <c r="I6" s="653" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="654" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="655" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="656" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="657" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="658" t="s">
-        <v>201</v>
-      </c>
-      <c r="O6" s="659" t="s">
-        <v>202</v>
-      </c>
-      <c r="P6" s="660" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="661" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="662" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="663" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="664" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="665" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="666" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="667" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="668" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="669" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="670" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="671" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="672" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="673" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="674" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="675" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="676" t="s">
-        <v>202</v>
-      </c>
-      <c r="P7" s="677" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="678" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="679" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="680" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="681" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="682" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="683" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="684" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="685" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="686" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8" s="687" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="688" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="689" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="690" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="691" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="692" t="s">
-        <v>201</v>
-      </c>
-      <c r="O8" s="693" t="s">
-        <v>202</v>
-      </c>
-      <c r="P8" s="694" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="695" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="696" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="697" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="698" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="699" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="700" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="701" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="702" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="703" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="704" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="705" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="706" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="707" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="708" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="709" t="s">
-        <v>201</v>
-      </c>
-      <c r="O9" s="710" t="s">
-        <v>202</v>
-      </c>
-      <c r="P9" s="711" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="712" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8794,978 +8273,480 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="713" t="s">
+      <c r="A1" s="630" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="631" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="632" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="633" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="634" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="635" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="636" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="637" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="638" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="714" t="s">
+      <c r="J1" s="639" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="715" t="s">
+      <c r="K1" s="640" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="716" t="s">
+      <c r="L1" s="641" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="717" t="s">
+      <c r="M1" s="642" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="718" t="s">
+      <c r="N1" s="643" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="644" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="645" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="646" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="647" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="719" t="s">
+      <c r="B2" s="648" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="720" t="s">
+      <c r="C2" s="649" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="721" t="s">
+      <c r="D2" s="650" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="722" t="s">
+      <c r="E2" s="651" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="723" t="s">
+      <c r="F2" s="652" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="724" t="s">
+      <c r="G2" s="653" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="725" t="s">
+      <c r="H2" s="654" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="726" t="s">
+      <c r="I2" s="655" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="727" t="s">
+      <c r="J2" s="656" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="728" t="s">
+      <c r="K2" s="657" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" s="729" t="s">
+      <c r="L2" s="658" t="s">
         <v>224</v>
       </c>
-      <c r="R1" s="730" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="731" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="732" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="733" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="734" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="735" t="s">
+      <c r="M2" s="659" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="736" t="s">
+      <c r="N2" s="660" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="661" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="662" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="663" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="664" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="665" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="666" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="667" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="668" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="669" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="670" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="671" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="672" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="673" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="674" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="675" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="676" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="677" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="678" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="679" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="680" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="681" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="682" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="737" t="s">
+      <c r="C4" s="683" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="684" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="685" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="686" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="687" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="688" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="738" t="s">
+      <c r="I4" s="689" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="690" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="691" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="692" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="693" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="694" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="739" t="s">
+      <c r="O4" s="695" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="740" t="s">
+      <c r="P4" s="696" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="697" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="698" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="699" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="741" t="s">
+      <c r="C5" s="700" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="701" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="702" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="703" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="704" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="705" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="706" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="707" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="708" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="709" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="710" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="711" t="s">
+        <v>228</v>
+      </c>
+      <c r="O5" s="712" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="713" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="714" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="715" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="716" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="742" t="s">
+      <c r="C6" s="717" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="718" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="719" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="720" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="721" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="722" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="723" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="724" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="725" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="726" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="727" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="728" t="s">
+        <v>228</v>
+      </c>
+      <c r="O6" s="729" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="730" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="731" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="732" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="733" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="743" t="s">
+      <c r="C7" s="734" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="735" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="736" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="737" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="738" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="739" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="740" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="741" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="742" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="743" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="744" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="745" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="746" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="747" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="748" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="749" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="750" t="s">
         <v>233</v>
       </c>
-      <c r="K2" s="744" t="s">
+      <c r="C8" s="751" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="752" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="753" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="754" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="755" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="756" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="757" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="758" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="759" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="760" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="761" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="762" t="s">
+        <v>228</v>
+      </c>
+      <c r="O8" s="763" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="764" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="765" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="766" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="767" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="745" t="s">
-        <v>235</v>
-      </c>
-      <c r="M2" s="746" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" s="747" t="s">
-        <v>237</v>
-      </c>
-      <c r="O2" s="748" t="s">
-        <v>238</v>
-      </c>
-      <c r="P2" s="749" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="750" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="751" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="752" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="753" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="754" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="755" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="756" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="757" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="758" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="759" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="760" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="761" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="762" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="763" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="764" t="s">
-        <v>163</v>
-      </c>
-      <c r="K3" s="765" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="766" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="767" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="768" t="s">
-        <v>163</v>
-      </c>
-      <c r="O3" s="769" t="s">
-        <v>163</v>
-      </c>
-      <c r="P3" s="770" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q3" s="771" t="s">
-        <v>163</v>
-      </c>
-      <c r="R3" s="772" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="773" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="774" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="775" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="776" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="777" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="778" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="779" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="780" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="781" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="782" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="783" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="784" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="785" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="786" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="787" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="788" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="N4" s="789" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="790" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="791" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q4" s="792" t="s">
-        <v>242</v>
-      </c>
-      <c r="R4" s="793" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="794" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="795" t="s">
-        <v>56</v>
-      </c>
-      <c r="U4" s="796" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="797" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="798" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="799" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="800" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="801" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="802" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="803" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="804" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="805" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="806" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="807" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="808" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="809" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="N5" s="810" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="811" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="812" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="813" t="s">
-        <v>242</v>
-      </c>
-      <c r="R5" s="814" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="815" t="s">
-        <v>202</v>
-      </c>
-      <c r="T5" s="816" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="817" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="818" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="819" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="820" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="821" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="822" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="823" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="824" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="825" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="826" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="827" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="828" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="829" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="830" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="N6" s="831" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="832" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="833" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q6" s="834" t="s">
-        <v>242</v>
-      </c>
-      <c r="R6" s="835" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="836" t="s">
-        <v>202</v>
-      </c>
-      <c r="T6" s="837" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="838" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="839" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="840" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="841" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="842" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="843" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="844" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="845" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="846" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="847" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="848" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="849" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="850" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="851" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N7" s="852" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="853" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="854" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q7" s="855" t="s">
-        <v>247</v>
-      </c>
-      <c r="R7" s="856" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="857" t="s">
-        <v>202</v>
-      </c>
-      <c r="T7" s="858" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" s="859" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="860" t="s">
+      <c r="C9" s="768" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="769" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="770" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="861" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="862" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="863" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="864" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="865" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="866" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="867" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="868" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="869" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="870" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="871" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="872" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N8" s="873" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="874" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="875" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="876" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="877" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="878" t="s">
-        <v>202</v>
-      </c>
-      <c r="T8" s="879" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="880" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="881" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="882" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="883" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="884" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="885" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="886" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="887" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="888" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="889" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="890" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="891" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="892" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="893" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="894" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="895" t="s">
-        <v>250</v>
-      </c>
-      <c r="P9" s="896" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="897" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="898" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="899" t="s">
-        <v>202</v>
-      </c>
-      <c r="T9" s="900" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="901" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="902" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="903" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="904" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="905" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="906" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="907" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="908" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H10" s="909" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I10" s="910" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="911" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="912" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="913" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="914" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="915" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="916" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="917" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="918" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="919" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="920" t="s">
-        <v>202</v>
-      </c>
-      <c r="T10" s="921" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="922" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="923" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="924" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="925" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="926" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="927" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="928" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="929" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="930" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="931" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="932" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="933" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="934" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="935" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N11" s="936" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="937" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="938" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="939" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="940" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="941" t="s">
-        <v>202</v>
-      </c>
-      <c r="T11" s="942" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="943" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="944" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="945" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="946" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="947" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="948" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="949" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="950" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="951" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="952" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="953" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="954" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="955" t="s">
-        <v>253</v>
-      </c>
-      <c r="M12" s="956" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N12" s="957" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="958" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="959" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="960" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="961" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="962" t="s">
-        <v>202</v>
-      </c>
-      <c r="T12" s="963" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" s="964" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="965" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="966" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="967" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="968" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="969" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="970" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="971" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="972" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="973" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="974" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="975" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="976" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="977" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N13" s="978" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="979" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="980" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="981" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="982" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" s="983" t="s">
-        <v>202</v>
-      </c>
-      <c r="T13" s="984" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13" s="985" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="986" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="987" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="988" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="989" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="990" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="991" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="992" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="993" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="994" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="995" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="996" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="997" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" s="998" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N14" s="999" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="1000" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1001" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="1002" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="1003" t="s">
-        <v>56</v>
-      </c>
-      <c r="S14" s="1004" t="s">
-        <v>202</v>
-      </c>
-      <c r="T14" s="1005" t="s">
-        <v>56</v>
-      </c>
-      <c r="U14" s="1006" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1007" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1008" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="1009" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1010" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1011" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1012" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="1013" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="1014" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="1015" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="1016" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="1017" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="1018" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="1019" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N15" s="1020" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="1021" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="1022" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="1023" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="1024" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="1025" t="s">
-        <v>202</v>
-      </c>
-      <c r="T15" s="1026" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" s="1027" t="s">
-        <v>202</v>
+      <c r="F9" s="771" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="772" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="773" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="774" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="775" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="776" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="777" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="778" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="779" t="s">
+        <v>228</v>
+      </c>
+      <c r="O9" s="780" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="781" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="782" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -9782,388 +8763,978 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1028" t="s">
+      <c r="A1" s="783" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="784" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="785" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="786" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="787" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="788" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="789" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="790" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="791" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="792" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="793" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="794" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="795" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="796" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="797" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="798" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="799" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="800" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="801" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="802" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="803" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="804" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="805" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="806" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="807" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="808" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="809" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="810" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="811" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="1029" t="s">
+      <c r="I2" s="812" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="1030" t="s">
+      <c r="J2" s="813" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="1031" t="s">
+      <c r="K2" s="814" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="1032" t="s">
+      <c r="L2" s="815" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="1033" t="s">
+      <c r="M2" s="816" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="1034" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" s="1035" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1036" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1037" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1038" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1039" t="s">
+      <c r="N2" s="817" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="1040" t="s">
+      <c r="O2" s="818" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="1041" t="s">
+      <c r="P2" s="819" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q2" s="820" t="s">
+        <v>223</v>
+      </c>
+      <c r="R2" s="821" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="822" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="823" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="824" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="825" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="826" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="827" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="828" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="829" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="830" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="831" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="832" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="833" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="834" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="835" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="836" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="837" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="838" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="839" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" s="840" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="841" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" s="842" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="843" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="844" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="845" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="846" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="1042" t="s">
+      <c r="B4" s="847" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="1043" t="s">
+      <c r="C4" s="848" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="849" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="850" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="851" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="852" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="853" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="854" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="855" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="856" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="857" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="858" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="N4" s="859" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="860" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="861" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="1044" t="s">
+      <c r="Q4" s="862" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="1045" t="s">
+      <c r="R4" s="863" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="864" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" s="865" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="866" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="867" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="868" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="1046" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1047" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1048" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1049" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1050" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1051" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1052" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1053" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1054" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="1055" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1056" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="1057" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1058" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1059" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="1060" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1061" t="s">
+      <c r="C5" s="869" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="870" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="871" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="872" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="873" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="874" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="875" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="876" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="877" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="878" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="879" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="N5" s="880" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="881" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="882" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q5" s="883" t="s">
+        <v>269</v>
+      </c>
+      <c r="R5" s="884" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="885" t="s">
+        <v>229</v>
+      </c>
+      <c r="T5" s="886" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="887" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="888" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="889" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="1062" t="n">
+      <c r="C6" s="890" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="891" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="892" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="893" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="894" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="895" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="896" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="897" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="898" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="899" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="900" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="N6" s="901" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="902" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="903" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q6" s="904" t="s">
+        <v>269</v>
+      </c>
+      <c r="R6" s="905" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="906" t="s">
+        <v>229</v>
+      </c>
+      <c r="T6" s="907" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="908" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="909" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="910" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="911" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="912" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="913" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="914" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="915" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="916" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="917" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="918" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="919" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="920" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="921" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N7" s="922" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="923" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="924" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q7" s="925" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="926" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="927" t="s">
+        <v>229</v>
+      </c>
+      <c r="T7" s="928" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" s="929" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="930" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="931" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="932" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="933" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="934" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="935" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="936" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="937" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="938" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="939" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="940" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="941" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="942" t="n">
         <v>1.0</v>
       </c>
-      <c r="C4" s="1063" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="1064" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="1065" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1066" t="n">
+      <c r="N8" s="943" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="944" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="945" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="946" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="947" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="948" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" s="949" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="950" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="951" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="952" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="953" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="954" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="955" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="956" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="957" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="958" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="959" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="960" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="961" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="962" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="963" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="964" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="965" t="s">
+        <v>277</v>
+      </c>
+      <c r="P9" s="966" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="967" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="968" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="969" t="s">
+        <v>229</v>
+      </c>
+      <c r="T9" s="970" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="971" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="972" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="973" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="974" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="975" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="976" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="977" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="978" t="n">
         <v>4.0</v>
       </c>
-      <c r="G4" s="1067" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1068" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1069" t="s">
-        <v>274</v>
-      </c>
-      <c r="J4" s="1070" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1071" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1072" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1073" t="n">
+      <c r="H10" s="979" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="I10" s="980" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="981" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="982" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="983" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="984" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="985" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="986" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="987" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="988" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="989" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="990" t="s">
+        <v>229</v>
+      </c>
+      <c r="T10" s="991" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="992" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="993" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="994" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="995" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="996" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="997" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="998" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="999" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1000" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1001" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1002" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1003" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="1004" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="1005" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N11" s="1006" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1007" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1008" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="1009" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="1010" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="1011" t="s">
+        <v>229</v>
+      </c>
+      <c r="T11" s="1012" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="1013" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1014" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1015" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="1016" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="1017" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1018" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1019" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1020" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1021" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1022" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1023" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1024" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="1025" t="s">
+        <v>280</v>
+      </c>
+      <c r="M12" s="1026" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5" s="1074" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="1075" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="1076" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1077" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="1078" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1079" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1080" t="s">
-        <v>274</v>
-      </c>
-      <c r="J5" s="1081" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1082" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1083" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1084" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="1085" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="1086" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="1087" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1088" t="n">
+      <c r="N12" s="1027" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1028" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1029" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1030" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="1031" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="1032" t="s">
+        <v>229</v>
+      </c>
+      <c r="T12" s="1033" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="1034" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1035" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1036" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1037" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="1038" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1039" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1040" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1041" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1042" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1043" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1044" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1045" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="1046" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="1047" t="n">
         <v>2.0</v>
       </c>
-      <c r="G6" s="1089" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1090" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1091" t="s">
-        <v>274</v>
-      </c>
-      <c r="J6" s="1092" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1093" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1094" t="s">
+      <c r="N13" s="1048" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="1049" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="1050" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1051" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="1052" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="1053" t="s">
+        <v>229</v>
+      </c>
+      <c r="T13" s="1054" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="1055" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1056" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1057" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="1058" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1059" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1060" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1061" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1062" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1063" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1064" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1065" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1066" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="1067" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" s="1068" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N14" s="1069" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1070" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1071" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1072" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="1073" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="1074" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="1075" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="1076" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1077" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1095" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="1096" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="1097" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="1098" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1099" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="1100" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1101" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1102" t="s">
-        <v>274</v>
-      </c>
-      <c r="J7" s="1103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1104" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="1107" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="1108" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="1109" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="1111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1112" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1113" t="s">
-        <v>274</v>
-      </c>
-      <c r="J8" s="1114" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="1115" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1116" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="1118" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="1119" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="1120" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1121" t="n">
+      <c r="B15" s="1078" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="1079" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1080" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1081" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1082" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1083" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1084" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1085" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1086" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1087" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="1088" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="1089" t="n">
         <v>2.0</v>
       </c>
-      <c r="G9" s="1122" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1123" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1124" t="s">
-        <v>274</v>
-      </c>
-      <c r="J9" s="1125" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1126" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1127" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="1129" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="1130" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="1131" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1132" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="1133" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1134" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1135" t="s">
-        <v>274</v>
-      </c>
-      <c r="J10" s="1136" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1137" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1138" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="1140" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="1141" t="s">
-        <v>277</v>
-      </c>
-      <c r="E11" s="1142" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1143" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="1144" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1145" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1146" t="s">
-        <v>274</v>
-      </c>
-      <c r="J11" s="1147" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="1148" t="s">
-        <v>274</v>
+      <c r="N15" s="1090" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1091" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1092" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1093" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="1094" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="1095" t="s">
+        <v>229</v>
+      </c>
+      <c r="T15" s="1096" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" s="1097" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -10180,141 +9751,388 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1149" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="1150" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="1151" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="1152" t="s">
+      <c r="A1" s="1098" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1099" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1100" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="1101" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="1102" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="1103" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="1104" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="1105" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1153" t="s">
+      <c r="I1" s="1106" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1154" t="s">
+      <c r="J1" s="1107" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1155" t="s">
+      <c r="K1" s="1108" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1156" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="1157" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="1158" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="1159" t="s">
+      <c r="A2" s="1109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="1110" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="1111" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="1112" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="1113" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="1114" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="1115" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="1116" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1160" t="s">
+      <c r="I2" s="1117" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1161" t="s">
+      <c r="J2" s="1118" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1162" t="s">
+      <c r="K2" s="1119" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1163" t="s">
+      <c r="A3" s="1120" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1164" t="s">
+      <c r="B3" s="1121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1122" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1165" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="1166" t="s">
+      <c r="D3" s="1123" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1124" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="1125" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1126" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1127" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1167" t="s">
+      <c r="I3" s="1128" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1168" t="s">
+      <c r="J3" s="1129" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="1169" t="s">
+      <c r="K3" s="1130" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1170" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="1171" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="1172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="1173" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1174" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="1175" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="1176" t="s">
-        <v>274</v>
+      <c r="A4" s="1131" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="1132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="1133" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="1134" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="1135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="1137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1138" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1139" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="1140" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1141" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1177" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="1178" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="1179" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="1180" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1181" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="1182" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1183" t="s">
-        <v>274</v>
+      <c r="A5" s="1142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="1143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1144" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="1145" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="1146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="1148" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1149" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1150" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="1151" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1152" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1184" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="1185" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="1186" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="1187" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="1188" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="1189" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1190" t="s">
-        <v>274</v>
+      <c r="A6" s="1153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1155" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="1156" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="1157" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1158" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="1159" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1160" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1161" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" s="1162" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1163" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1166" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="1167" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="1168" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="1170" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1171" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1172" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" s="1173" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1174" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1177" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="1178" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="1179" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="1181" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1182" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1183" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" s="1184" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1185" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1187" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1188" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="1189" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="1190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1191" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="1192" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1193" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1194" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" s="1195" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1196" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1199" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="1200" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="1201" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1202" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G10" s="1203" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1204" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1205" t="s">
+        <v>301</v>
+      </c>
+      <c r="J10" s="1206" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1207" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1208" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="1210" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="1211" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="1212" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1213" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="1214" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1215" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1216" t="s">
+        <v>301</v>
+      </c>
+      <c r="J11" s="1217" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1218" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
